--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_85.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_85.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1737</v>
+        <v>2.3375</v>
       </c>
       <c r="J3" t="n">
-        <v>13.04</v>
+        <v>26.35</v>
       </c>
       <c r="K3" t="n">
-        <v>508.76</v>
+        <v>1105.94</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.13</v>
+        <v>3.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.4748</v>
+        <v>1161.5575</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9393</v>
+        <v>2.121</v>
       </c>
       <c r="J4" t="n">
-        <v>23.62</v>
+        <v>14.26</v>
       </c>
       <c r="K4" t="n">
-        <v>822.34</v>
+        <v>543.05</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="R4" t="n">
-        <v>1001.7717</v>
+        <v>1040.5562</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>9.922800000000001</v>
+        <v>10.7029</v>
       </c>
       <c r="J5" t="n">
-        <v>27.34</v>
+        <v>26.98</v>
       </c>
       <c r="K5" t="n">
-        <v>4871.13</v>
+        <v>5183.77</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>12.07</v>
+        <v>11.74</v>
       </c>
       <c r="R5" t="n">
-        <v>4229.0157</v>
+        <v>4426.3731</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>11.8225</v>
+        <v>12.9008</v>
       </c>
       <c r="J6" t="n">
-        <v>27.59</v>
+        <v>27.34</v>
       </c>
       <c r="K6" t="n">
-        <v>5855.11</v>
+        <v>6331.86</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>9.869999999999999</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>3458.1348</v>
+        <v>3758.2363</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>5.1902</v>
+        <v>5.6394</v>
       </c>
       <c r="J7" t="n">
-        <v>32.99</v>
+        <v>32.93</v>
       </c>
       <c r="K7" t="n">
-        <v>3074.24</v>
+        <v>3333.85</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>7.05</v>
+        <v>7.1</v>
       </c>
       <c r="R7" t="n">
-        <v>2471.4573</v>
+        <v>2677.6303</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>60.1882</v>
+        <v>66.8758</v>
       </c>
       <c r="J8" t="n">
-        <v>4.29</v>
+        <v>4.31</v>
       </c>
       <c r="K8" t="n">
-        <v>4635.67</v>
+        <v>5175.42</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>13.04</v>
+        <v>13.33</v>
       </c>
       <c r="R8" t="n">
-        <v>4569.3749</v>
+        <v>5026.2408</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>12.4532</v>
+        <v>14.6453</v>
       </c>
       <c r="J9" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="K9" t="n">
-        <v>427.59</v>
+        <v>476.35</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>342.8917</v>
+        <v>380.8621</v>
       </c>
     </row>
   </sheetData>
